--- a/prep/CS/cs_rgn_chl_PR.xlsx
+++ b/prep/CS/cs_rgn_chl_PR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vapiz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\prep\CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059D86ED-494F-4BB4-804E-BA71FF2414AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B922ED6-405C-426B-9191-7CDA72449EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algas pardas" sheetId="2" r:id="rId1"/>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C104"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G1" activeCellId="1" sqref="C85:G85 C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3629,7 +3629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C102" sqref="C102:G102"/>
     </sheetView>
   </sheetViews>
@@ -4944,7 +4944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
@@ -7340,7 +7340,7 @@
   <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/prep/CS/cs_rgn_chl_PR.xlsx
+++ b/prep/CS/cs_rgn_chl_PR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\prep\CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B922ED6-405C-426B-9191-7CDA72449EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4044E6A-ED97-45D7-B083-39F25EBCAA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,20 @@
   <definedNames>
     <definedName name="_xlnm.Database">marismas!$B$1:$B$103</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1222,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="C85:G85 C1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1262,16 +1275,20 @@
         <v>1.3052923856322403</v>
       </c>
       <c r="D2">
-        <v>0.98328203444476947</v>
+        <f>C2-(C2*0.018)</f>
+        <v>1.28179712269086</v>
       </c>
       <c r="E2">
-        <v>2.0317024695638324</v>
+        <f t="shared" ref="E2:G2" si="0">D2-(D2*0.018)</f>
+        <v>1.2587247744824246</v>
       </c>
       <c r="F2">
-        <v>1.18742135488897</v>
+        <f t="shared" si="0"/>
+        <v>1.236067728541741</v>
       </c>
       <c r="G2">
-        <v>2.4884039927376502</v>
+        <f t="shared" si="0"/>
+        <v>1.2138185094279896</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -1285,16 +1302,20 @@
         <v>1928.6152289063236</v>
       </c>
       <c r="D3">
-        <v>2085.4471437958887</v>
+        <f t="shared" ref="D3:G66" si="1">C3-(C3*0.018)</f>
+        <v>1893.9001547860098</v>
       </c>
       <c r="E3">
-        <v>3685.2392256668377</v>
+        <f t="shared" si="1"/>
+        <v>1859.8099519998616</v>
       </c>
       <c r="F3">
-        <v>4322.3015810721608</v>
+        <f t="shared" si="1"/>
+        <v>1826.333372863864</v>
       </c>
       <c r="G3">
-        <v>2843.4141064799583</v>
+        <f t="shared" si="1"/>
+        <v>1793.4593721523145</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1308,16 +1329,20 @@
         <v>220.7860763919515</v>
       </c>
       <c r="D4">
-        <v>258.84727428317734</v>
+        <f t="shared" si="1"/>
+        <v>216.81192701689636</v>
       </c>
       <c r="E4">
-        <v>383.22674610972939</v>
+        <f t="shared" si="1"/>
+        <v>212.90931233059223</v>
       </c>
       <c r="F4">
-        <v>72.524528272747403</v>
+        <f t="shared" si="1"/>
+        <v>209.07694470864158</v>
       </c>
       <c r="G4">
-        <v>213.20397710874127</v>
+        <f t="shared" si="1"/>
+        <v>205.31355970388603</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1331,16 +1356,20 @@
         <v>216.29983482312744</v>
       </c>
       <c r="D5">
-        <v>451.84209548839414</v>
+        <f t="shared" si="1"/>
+        <v>212.40643779631114</v>
       </c>
       <c r="E5">
-        <v>268.87464611686443</v>
+        <f t="shared" si="1"/>
+        <v>208.58312191597753</v>
       </c>
       <c r="F5">
-        <v>521.55722145665789</v>
+        <f t="shared" si="1"/>
+        <v>204.82862572148994</v>
       </c>
       <c r="G5">
-        <v>587.57331263205401</v>
+        <f t="shared" si="1"/>
+        <v>201.14171045850313</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1354,16 +1383,20 @@
         <v>3.7666021024938057</v>
       </c>
       <c r="D6">
-        <v>2.8747463668251814</v>
+        <f t="shared" si="1"/>
+        <v>3.6988032646489173</v>
       </c>
       <c r="E6">
-        <v>39.912837086015628</v>
+        <f t="shared" si="1"/>
+        <v>3.6322248058852367</v>
       </c>
       <c r="F6">
-        <v>3.893351022532141</v>
+        <f t="shared" si="1"/>
+        <v>3.5668447593793022</v>
       </c>
       <c r="G6">
-        <v>17.851885906580414</v>
+        <f t="shared" si="1"/>
+        <v>3.5026415537104749</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1377,16 +1410,20 @@
         <v>412918.77295351814</v>
       </c>
       <c r="D7">
-        <v>1104392.2252495806</v>
+        <f t="shared" si="1"/>
+        <v>405486.23504035483</v>
       </c>
       <c r="E7">
-        <v>877974.21286936023</v>
+        <f t="shared" si="1"/>
+        <v>398187.48280962848</v>
       </c>
       <c r="F7">
-        <v>1140026.3285843169</v>
+        <f t="shared" si="1"/>
+        <v>391020.10811905516</v>
       </c>
       <c r="G7">
-        <v>696919.36500435311</v>
+        <f t="shared" si="1"/>
+        <v>383981.74617291219</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1400,16 +1437,20 @@
         <v>5239292.5987653192</v>
       </c>
       <c r="D8">
-        <v>9429810.2640060615</v>
+        <f t="shared" si="1"/>
+        <v>5144985.331987543</v>
       </c>
       <c r="E8">
-        <v>11484699.656784089</v>
+        <f t="shared" si="1"/>
+        <v>5052375.5960117672</v>
       </c>
       <c r="F8">
-        <v>9769693.9831972066</v>
+        <f t="shared" si="1"/>
+        <v>4961432.8352835551</v>
       </c>
       <c r="G8">
-        <v>13597599.586993886</v>
+        <f t="shared" si="1"/>
+        <v>4872127.0442484515</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1423,16 +1464,20 @@
         <v>518.76225288071032</v>
       </c>
       <c r="D9">
-        <v>1362.2915235496555</v>
+        <f t="shared" si="1"/>
+        <v>509.42453232885754</v>
       </c>
       <c r="E9">
-        <v>838.76482535632078</v>
+        <f t="shared" si="1"/>
+        <v>500.25489074693809</v>
       </c>
       <c r="F9">
-        <v>2495.6103025058924</v>
+        <f t="shared" si="1"/>
+        <v>491.25030271349323</v>
       </c>
       <c r="G9">
-        <v>1081.0715509065981</v>
+        <f t="shared" si="1"/>
+        <v>482.40779726465036</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1446,16 +1491,20 @@
         <v>1670.6599639672461</v>
       </c>
       <c r="D10">
-        <v>329.00513462592193</v>
+        <f t="shared" si="1"/>
+        <v>1640.5880846158357</v>
       </c>
       <c r="E10">
-        <v>839.8969181698036</v>
+        <f t="shared" si="1"/>
+        <v>1611.0574990927507</v>
       </c>
       <c r="F10">
-        <v>708.74918681107101</v>
+        <f t="shared" si="1"/>
+        <v>1582.0584641090811</v>
       </c>
       <c r="G10">
-        <v>276.61996168689791</v>
+        <f t="shared" si="1"/>
+        <v>1553.5814117551176</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1469,16 +1518,20 @@
         <v>0.62611664768390274</v>
       </c>
       <c r="D11">
-        <v>1.2193345937108455</v>
+        <f t="shared" si="1"/>
+        <v>0.61484654802559247</v>
       </c>
       <c r="E11">
-        <v>5.0599911762953615</v>
+        <f t="shared" si="1"/>
+        <v>0.60377931016113184</v>
       </c>
       <c r="F11">
-        <v>0.70047300741207896</v>
+        <f t="shared" si="1"/>
+        <v>0.59291128257823145</v>
       </c>
       <c r="G11">
-        <v>4.4479140947274445</v>
+        <f t="shared" si="1"/>
+        <v>0.58223887949182329</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1492,16 +1545,20 @@
         <v>24.198874663592449</v>
       </c>
       <c r="D12">
-        <v>135.36929594157871</v>
+        <f t="shared" si="1"/>
+        <v>23.763294919647784</v>
       </c>
       <c r="E12">
-        <v>164.07899244354033</v>
+        <f t="shared" si="1"/>
+        <v>23.335555611094122</v>
       </c>
       <c r="F12">
-        <v>29.734372697325252</v>
+        <f t="shared" si="1"/>
+        <v>22.915515610094428</v>
       </c>
       <c r="G12">
-        <v>199.13942802843584</v>
+        <f t="shared" si="1"/>
+        <v>22.503036329112728</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1515,16 +1572,20 @@
         <v>14.759006023988952</v>
       </c>
       <c r="D13">
-        <v>3.3752488682847197</v>
+        <f t="shared" si="1"/>
+        <v>14.493343915557151</v>
       </c>
       <c r="E13">
-        <v>2.109535012115642</v>
+        <f t="shared" si="1"/>
+        <v>14.232463725077123</v>
       </c>
       <c r="F13">
-        <v>4.4123783390990132</v>
+        <f t="shared" si="1"/>
+        <v>13.976279378025735</v>
       </c>
       <c r="G13">
-        <v>4.6391580069337515</v>
+        <f t="shared" si="1"/>
+        <v>13.724706349221272</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1538,16 +1599,20 @@
         <v>23.083321438561036</v>
       </c>
       <c r="D14">
-        <v>17.434621236439003</v>
+        <f t="shared" si="1"/>
+        <v>22.667821652666937</v>
       </c>
       <c r="E14">
-        <v>7.7739181282573515</v>
+        <f t="shared" si="1"/>
+        <v>22.259800862918933</v>
       </c>
       <c r="F14">
-        <v>9.3150703170069562</v>
+        <f t="shared" si="1"/>
+        <v>21.859124447386392</v>
       </c>
       <c r="G14">
-        <v>12.398104146333052</v>
+        <f t="shared" si="1"/>
+        <v>21.465660207333439</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1561,16 +1626,20 @@
         <v>4.1880278723253311E-2</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.1126433706234755E-2</v>
       </c>
       <c r="E15">
-        <v>0.18107810639441896</v>
+        <f t="shared" si="1"/>
+        <v>4.0386157899522532E-2</v>
       </c>
       <c r="F15">
-        <v>0.12071660891694502</v>
+        <f t="shared" si="1"/>
+        <v>3.9659207057331128E-2</v>
       </c>
       <c r="G15">
-        <v>6.0359188773148179E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.8945341330299164E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1584,16 +1653,20 @@
         <v>0.2827452947694471</v>
       </c>
       <c r="D16">
-        <v>0.81943352524398172</v>
+        <f t="shared" si="1"/>
+        <v>0.27765587946359704</v>
       </c>
       <c r="E16">
-        <v>0.40971640636926993</v>
+        <f t="shared" si="1"/>
+        <v>0.27265807363325228</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.26775022830785372</v>
       </c>
       <c r="G16">
-        <v>1.1122962426246121</v>
+        <f t="shared" si="1"/>
+        <v>0.26293072419831237</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1607,16 +1680,20 @@
         <v>309.27234643189428</v>
       </c>
       <c r="D17">
-        <v>526.12280024122299</v>
+        <f t="shared" si="1"/>
+        <v>303.7054441961202</v>
       </c>
       <c r="E17">
-        <v>726.74651337258535</v>
+        <f t="shared" si="1"/>
+        <v>298.23874620059001</v>
       </c>
       <c r="F17">
-        <v>212.88915122359188</v>
+        <f t="shared" si="1"/>
+        <v>292.87044876897937</v>
       </c>
       <c r="G17">
-        <v>603.89124073720791</v>
+        <f t="shared" si="1"/>
+        <v>287.59878069113773</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1630,16 +1707,20 @@
         <v>8782.70502524105</v>
       </c>
       <c r="D18">
-        <v>22794.068367206666</v>
+        <f t="shared" si="1"/>
+        <v>8624.6163347867114</v>
       </c>
       <c r="E18">
-        <v>25670.979975454884</v>
+        <f t="shared" si="1"/>
+        <v>8469.3732407605512</v>
       </c>
       <c r="F18">
-        <v>17683.470413035291</v>
+        <f t="shared" si="1"/>
+        <v>8316.9245224268616</v>
       </c>
       <c r="G18">
-        <v>26917.812843976852</v>
+        <f t="shared" si="1"/>
+        <v>8167.2198810231785</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1653,16 +1734,20 @@
         <v>793.95438384858085</v>
       </c>
       <c r="D19">
-        <v>16.636995317414026</v>
+        <f t="shared" si="1"/>
+        <v>779.66320493930641</v>
       </c>
       <c r="E19">
-        <v>90.365586882286877</v>
+        <f t="shared" si="1"/>
+        <v>765.62926725039893</v>
       </c>
       <c r="F19">
-        <v>11.746983205167071</v>
+        <f t="shared" si="1"/>
+        <v>751.84794043989177</v>
       </c>
       <c r="G19">
-        <v>16.632471047108531</v>
+        <f t="shared" si="1"/>
+        <v>738.31467751197374</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1676,16 +1761,20 @@
         <v>7.7486467388818179</v>
       </c>
       <c r="D20">
-        <v>11.201890672533867</v>
+        <f t="shared" si="1"/>
+        <v>7.6091710975819451</v>
       </c>
       <c r="E20">
-        <v>5.0642575503517051</v>
+        <f t="shared" si="1"/>
+        <v>7.4722060178254699</v>
       </c>
       <c r="F20">
-        <v>6.278554543709955</v>
+        <f t="shared" si="1"/>
+        <v>7.3377063095046111</v>
       </c>
       <c r="G20">
-        <v>11.40888657598987</v>
+        <f t="shared" si="1"/>
+        <v>7.2056275959335281</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1699,16 +1788,20 @@
         <v>535.96961263890694</v>
       </c>
       <c r="D21">
-        <v>190.69335791431001</v>
+        <f t="shared" si="1"/>
+        <v>526.32215961140662</v>
       </c>
       <c r="E21">
-        <v>549.47111063215425</v>
+        <f t="shared" si="1"/>
+        <v>516.84836073840131</v>
       </c>
       <c r="F21">
-        <v>681.72783257939466</v>
+        <f t="shared" si="1"/>
+        <v>507.54509024511009</v>
       </c>
       <c r="G21">
-        <v>242.12332247452665</v>
+        <f t="shared" si="1"/>
+        <v>498.4092786206981</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1722,16 +1815,20 @@
         <v>205253.0607723936</v>
       </c>
       <c r="D22">
-        <v>917807.46520151303</v>
+        <f t="shared" si="1"/>
+        <v>201558.5056784905</v>
       </c>
       <c r="E22">
-        <v>368655.12242498423</v>
+        <f t="shared" si="1"/>
+        <v>197930.45257627766</v>
       </c>
       <c r="F22">
-        <v>350112.57848101686</v>
+        <f t="shared" si="1"/>
+        <v>194367.70442990467</v>
       </c>
       <c r="G22">
-        <v>460366.47151790664</v>
+        <f t="shared" si="1"/>
+        <v>190869.08575016638</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -1745,16 +1842,20 @@
         <v>18.734474304959861</v>
       </c>
       <c r="D23">
-        <v>41.136223747487499</v>
+        <f t="shared" si="1"/>
+        <v>18.397253767470584</v>
       </c>
       <c r="E23">
-        <v>42.550961624339223</v>
+        <f t="shared" si="1"/>
+        <v>18.066103199656112</v>
       </c>
       <c r="F23">
-        <v>24.531435789095685</v>
+        <f t="shared" si="1"/>
+        <v>17.740913342062303</v>
       </c>
       <c r="G23">
-        <v>51.286809190592834</v>
+        <f t="shared" si="1"/>
+        <v>17.42157690190518</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1768,16 +1869,20 @@
         <v>14.602198352617284</v>
       </c>
       <c r="D24">
-        <v>22.230810016944289</v>
+        <f t="shared" si="1"/>
+        <v>14.339358782270173</v>
       </c>
       <c r="E24">
-        <v>17.248462368878236</v>
+        <f t="shared" si="1"/>
+        <v>14.081250324189309</v>
       </c>
       <c r="F24">
-        <v>14.206282652661336</v>
+        <f t="shared" si="1"/>
+        <v>13.827787818353901</v>
       </c>
       <c r="G24">
-        <v>22.252454965338803</v>
+        <f t="shared" si="1"/>
+        <v>13.578887637623531</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -1791,16 +1896,20 @@
         <v>0.44712113258902808</v>
       </c>
       <c r="D25">
-        <v>0.31849395525916735</v>
+        <f t="shared" si="1"/>
+        <v>0.43907295220242559</v>
       </c>
       <c r="E25">
-        <v>0.90623265221801674</v>
+        <f t="shared" si="1"/>
+        <v>0.43116963906278194</v>
       </c>
       <c r="F25">
-        <v>1.0926753132533655</v>
+        <f t="shared" si="1"/>
+        <v>0.42340858555965188</v>
       </c>
       <c r="G25">
-        <v>1.1702365327592283</v>
+        <f t="shared" si="1"/>
+        <v>0.41578723101957815</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -1810,21 +1919,6 @@
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0.5332395772981553</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
@@ -1837,16 +1931,20 @@
         <v>29.817897955789327</v>
       </c>
       <c r="D27">
-        <v>10.377761433320469</v>
+        <f t="shared" si="1"/>
+        <v>29.28117579258512</v>
       </c>
       <c r="E27">
-        <v>12.103381830434937</v>
+        <f t="shared" si="1"/>
+        <v>28.75411462831859</v>
       </c>
       <c r="F27">
-        <v>19.890726094609551</v>
+        <f t="shared" si="1"/>
+        <v>28.236540565008855</v>
       </c>
       <c r="G27">
-        <v>35.498121504747751</v>
+        <f t="shared" si="1"/>
+        <v>27.728282834838694</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1860,16 +1958,20 @@
         <v>133.36517051969156</v>
       </c>
       <c r="D28">
-        <v>163.01555761884333</v>
+        <f t="shared" si="1"/>
+        <v>130.96459745033712</v>
       </c>
       <c r="E28">
-        <v>68.967384382063003</v>
+        <f t="shared" si="1"/>
+        <v>128.60723469623105</v>
       </c>
       <c r="F28">
-        <v>48.349793645155714</v>
+        <f t="shared" si="1"/>
+        <v>126.29230447169888</v>
       </c>
       <c r="G28">
-        <v>49.218443938652165</v>
+        <f t="shared" si="1"/>
+        <v>124.01904299120831</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -1883,16 +1985,20 @@
         <v>17.649658700907988</v>
       </c>
       <c r="D29">
-        <v>10.880402010001577</v>
+        <f t="shared" si="1"/>
+        <v>17.331964844291644</v>
       </c>
       <c r="E29">
-        <v>75.917286503748073</v>
+        <f t="shared" si="1"/>
+        <v>17.019989477094395</v>
       </c>
       <c r="F29">
-        <v>15.807713400045627</v>
+        <f t="shared" si="1"/>
+        <v>16.713629666506694</v>
       </c>
       <c r="G29">
-        <v>31.234084765285825</v>
+        <f t="shared" si="1"/>
+        <v>16.412784332509574</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -1906,16 +2012,20 @@
         <v>612.31324001165854</v>
       </c>
       <c r="D30">
-        <v>860.32840834682452</v>
+        <f t="shared" si="1"/>
+        <v>601.2916016914487</v>
       </c>
       <c r="E30">
-        <v>468.45383512938213</v>
+        <f t="shared" si="1"/>
+        <v>590.46835286100259</v>
       </c>
       <c r="F30">
-        <v>937.28628305944233</v>
+        <f t="shared" si="1"/>
+        <v>579.8399225095045</v>
       </c>
       <c r="G30">
-        <v>775.96966399078622</v>
+        <f t="shared" si="1"/>
+        <v>569.40280390433338</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -1929,16 +2039,20 @@
         <v>1381.6893725388943</v>
       </c>
       <c r="D31">
-        <v>712.49024532231601</v>
+        <f t="shared" si="1"/>
+        <v>1356.8189638331942</v>
       </c>
       <c r="E31">
-        <v>828.06203813861896</v>
+        <f t="shared" si="1"/>
+        <v>1332.3962224841966</v>
       </c>
       <c r="F31">
-        <v>711.43217204432722</v>
+        <f t="shared" si="1"/>
+        <v>1308.4130904794811</v>
       </c>
       <c r="G31">
-        <v>513.0618557586065</v>
+        <f t="shared" si="1"/>
+        <v>1284.8616548508503</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -1952,16 +2066,20 @@
         <v>22.632859656100379</v>
       </c>
       <c r="D32">
-        <v>39.970440091973927</v>
+        <f t="shared" si="1"/>
+        <v>22.225468182290573</v>
       </c>
       <c r="E32">
-        <v>45.80867852809012</v>
+        <f t="shared" si="1"/>
+        <v>21.825409755009343</v>
       </c>
       <c r="F32">
-        <v>21.203465836689453</v>
+        <f t="shared" si="1"/>
+        <v>21.432552379419175</v>
       </c>
       <c r="G32">
-        <v>40.306364813708065</v>
+        <f t="shared" si="1"/>
+        <v>21.046766436589628</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -1975,16 +2093,20 @@
         <v>1.0488300035808547</v>
       </c>
       <c r="D33">
-        <v>0.52256842531266101</v>
+        <f t="shared" si="1"/>
+        <v>1.0299510635163993</v>
       </c>
       <c r="E33">
-        <v>0.52256908685616432</v>
+        <f t="shared" si="1"/>
+        <v>1.0114119443731042</v>
       </c>
       <c r="F33">
-        <v>1.0451377450581771</v>
+        <f t="shared" si="1"/>
+        <v>0.99320652937438836</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.97532881184564935</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -1998,16 +2120,20 @@
         <v>211.60987962649094</v>
       </c>
       <c r="D34">
-        <v>219.30459756104688</v>
+        <f t="shared" si="1"/>
+        <v>207.80090179321411</v>
       </c>
       <c r="E34">
-        <v>290.97039232743339</v>
+        <f t="shared" si="1"/>
+        <v>204.06048556093626</v>
       </c>
       <c r="F34">
-        <v>350.34353041348828</v>
+        <f t="shared" si="1"/>
+        <v>200.3873968208394</v>
       </c>
       <c r="G34">
-        <v>231.1812851734681</v>
+        <f t="shared" si="1"/>
+        <v>196.7804236780643</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -2021,16 +2147,20 @@
         <v>8.1857203722040098E-2</v>
       </c>
       <c r="D35">
-        <v>0.11763857428291841</v>
+        <f t="shared" si="1"/>
+        <v>8.0383774055043378E-2</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.8936866122052599E-2</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.7516002531855657E-2</v>
       </c>
       <c r="G35">
-        <v>0.11763859266982205</v>
+        <f t="shared" si="1"/>
+        <v>7.6120714486282257E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -2044,16 +2174,20 @@
         <v>0.1952400369669274</v>
       </c>
       <c r="D36">
-        <v>0.56158177149447375</v>
+        <f t="shared" si="1"/>
+        <v>0.19172571630152271</v>
       </c>
       <c r="E36">
-        <v>0.28079073240201641</v>
+        <f t="shared" si="1"/>
+        <v>0.18827465340809529</v>
       </c>
       <c r="F36">
-        <v>0.47535607827465692</v>
+        <f t="shared" si="1"/>
+        <v>0.18488570964674958</v>
       </c>
       <c r="G36">
-        <v>0.41738494276969973</v>
+        <f t="shared" si="1"/>
+        <v>0.1815577668731081</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -2067,16 +2201,20 @@
         <v>532.75520944426512</v>
       </c>
       <c r="D37">
-        <v>147.52755491666051</v>
+        <f t="shared" si="1"/>
+        <v>523.16561567426834</v>
       </c>
       <c r="E37">
-        <v>616.28990098433917</v>
+        <f t="shared" si="1"/>
+        <v>513.74863459213157</v>
       </c>
       <c r="F37">
-        <v>315.7203226325222</v>
+        <f t="shared" si="1"/>
+        <v>504.50115916947323</v>
       </c>
       <c r="G37">
-        <v>213.45491191748081</v>
+        <f t="shared" si="1"/>
+        <v>495.42013830442272</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -2090,16 +2228,20 @@
         <v>72.948663634556681</v>
       </c>
       <c r="D38">
-        <v>42.734630266418421</v>
+        <f t="shared" si="1"/>
+        <v>71.635587689134667</v>
       </c>
       <c r="E38">
-        <v>78.948747135824576</v>
+        <f t="shared" si="1"/>
+        <v>70.346147110730243</v>
       </c>
       <c r="F38">
-        <v>39.584331873752973</v>
+        <f t="shared" si="1"/>
+        <v>69.079916462737103</v>
       </c>
       <c r="G38">
-        <v>28.997905894822331</v>
+        <f t="shared" si="1"/>
+        <v>67.836477966407841</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2113,16 +2255,20 @@
         <v>10549.252664748634</v>
       </c>
       <c r="D39">
-        <v>24305.911966441134</v>
+        <f t="shared" si="1"/>
+        <v>10359.366116783158</v>
       </c>
       <c r="E39">
-        <v>18256.295966926999</v>
+        <f t="shared" si="1"/>
+        <v>10172.897526681061</v>
       </c>
       <c r="F39">
-        <v>19463.934016318086</v>
+        <f t="shared" si="1"/>
+        <v>9989.7853712008018</v>
       </c>
       <c r="G39">
-        <v>22425.854128568102</v>
+        <f t="shared" si="1"/>
+        <v>9809.969234519187</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -2136,16 +2282,20 @@
         <v>314.87109328176456</v>
       </c>
       <c r="D40">
-        <v>691.39578699388858</v>
+        <f t="shared" si="1"/>
+        <v>309.20341360269282</v>
       </c>
       <c r="E40">
-        <v>705.44247816840425</v>
+        <f t="shared" si="1"/>
+        <v>303.63775215784437</v>
       </c>
       <c r="F40">
-        <v>862.96445070650941</v>
+        <f t="shared" si="1"/>
+        <v>298.17227261900319</v>
       </c>
       <c r="G40">
-        <v>779.38955304137357</v>
+        <f t="shared" si="1"/>
+        <v>292.80517171186114</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -2159,16 +2309,20 @@
         <v>22.058117819571574</v>
       </c>
       <c r="D41">
-        <v>44.93357837800734</v>
+        <f t="shared" si="1"/>
+        <v>21.661071698819285</v>
       </c>
       <c r="E41">
-        <v>52.216937984610347</v>
+        <f t="shared" si="1"/>
+        <v>21.271172408240538</v>
       </c>
       <c r="F41">
-        <v>45.280019808071167</v>
+        <f t="shared" si="1"/>
+        <v>20.88829130489221</v>
       </c>
       <c r="G41">
-        <v>43.25534763712475</v>
+        <f t="shared" si="1"/>
+        <v>20.512302061404149</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -2182,16 +2336,20 @@
         <v>49.155126489528833</v>
       </c>
       <c r="D42">
-        <v>237.04622748386345</v>
+        <f t="shared" si="1"/>
+        <v>48.270334212717316</v>
       </c>
       <c r="E42">
-        <v>389.51571645654349</v>
+        <f t="shared" si="1"/>
+        <v>47.401468196888402</v>
       </c>
       <c r="F42">
-        <v>91.652297092624408</v>
+        <f t="shared" si="1"/>
+        <v>46.548241769344408</v>
       </c>
       <c r="G42">
-        <v>371.42629752503075</v>
+        <f t="shared" si="1"/>
+        <v>45.710373417496207</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -2205,16 +2363,20 @@
         <v>267.46809359091861</v>
       </c>
       <c r="D43">
-        <v>111.42618608066198</v>
+        <f t="shared" si="1"/>
+        <v>262.65366790628207</v>
       </c>
       <c r="E43">
-        <v>244.07882269745207</v>
+        <f t="shared" si="1"/>
+        <v>257.925901883969</v>
       </c>
       <c r="F43">
-        <v>240.50731587722728</v>
+        <f t="shared" si="1"/>
+        <v>253.28323565005758</v>
       </c>
       <c r="G43">
-        <v>135.27485653362066</v>
+        <f t="shared" si="1"/>
+        <v>248.72413740835654</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -2228,16 +2390,20 @@
         <v>60.509409789513278</v>
       </c>
       <c r="D44">
-        <v>240.41742391179301</v>
+        <f t="shared" si="1"/>
+        <v>59.420240413302039</v>
       </c>
       <c r="E44">
-        <v>579.83993256816166</v>
+        <f t="shared" si="1"/>
+        <v>58.350676085862602</v>
       </c>
       <c r="F44">
-        <v>94.861363053139414</v>
+        <f t="shared" si="1"/>
+        <v>57.300363916317075</v>
       </c>
       <c r="G44">
-        <v>527.53828290528929</v>
+        <f t="shared" si="1"/>
+        <v>56.268957365823368</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -2251,16 +2417,20 @@
         <v>121.54722393265291</v>
       </c>
       <c r="D45">
-        <v>221.72277549146099</v>
+        <f t="shared" si="1"/>
+        <v>119.35937390186515</v>
       </c>
       <c r="E45">
-        <v>872.76917307747976</v>
+        <f t="shared" si="1"/>
+        <v>117.21090517163158</v>
       </c>
       <c r="F45">
-        <v>170.972618246282</v>
+        <f t="shared" si="1"/>
+        <v>115.10110887854221</v>
       </c>
       <c r="G45">
-        <v>181.36193938055388</v>
+        <f t="shared" si="1"/>
+        <v>113.02928891872844</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -2274,16 +2444,20 @@
         <v>3.6885392880948191</v>
       </c>
       <c r="D46">
-        <v>13.627355064564023</v>
+        <f t="shared" si="1"/>
+        <v>3.6221455809091125</v>
       </c>
       <c r="E46">
-        <v>39.62460354593599</v>
+        <f t="shared" si="1"/>
+        <v>3.5569469604527484</v>
       </c>
       <c r="F46">
-        <v>0.39379085283617449</v>
+        <f t="shared" si="1"/>
+        <v>3.4929219151645987</v>
       </c>
       <c r="G46">
-        <v>11.068046911785505</v>
+        <f t="shared" si="1"/>
+        <v>3.4300493206916358</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -2297,16 +2471,20 @@
         <v>20.58989905871401</v>
       </c>
       <c r="D47">
-        <v>4.3866771425853957</v>
+        <f t="shared" si="1"/>
+        <v>20.219280875657159</v>
       </c>
       <c r="E47">
-        <v>44.657997931133949</v>
+        <f t="shared" si="1"/>
+        <v>19.855333819895328</v>
       </c>
       <c r="F47">
-        <v>15.19079093524916</v>
+        <f t="shared" si="1"/>
+        <v>19.497937811137213</v>
       </c>
       <c r="G47">
-        <v>17.665498256310947</v>
+        <f t="shared" si="1"/>
+        <v>19.146974930536743</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -2320,16 +2498,20 @@
         <v>80.037970251921251</v>
       </c>
       <c r="D48">
-        <v>112.65659058123101</v>
+        <f t="shared" si="1"/>
+        <v>78.597286787386665</v>
       </c>
       <c r="E48">
-        <v>218.27530013465926</v>
+        <f t="shared" si="1"/>
+        <v>77.182535625213703</v>
       </c>
       <c r="F48">
-        <v>144.25132259605383</v>
+        <f t="shared" si="1"/>
+        <v>75.793249983959853</v>
       </c>
       <c r="G48">
-        <v>112.87045875566017</v>
+        <f t="shared" si="1"/>
+        <v>74.428971484248578</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
@@ -2343,16 +2525,20 @@
         <v>78.363366075575357</v>
       </c>
       <c r="D49">
-        <v>599.24589846085667</v>
+        <f t="shared" si="1"/>
+        <v>76.952825486215005</v>
       </c>
       <c r="E49">
-        <v>457.54072413649311</v>
+        <f t="shared" si="1"/>
+        <v>75.567674627463134</v>
       </c>
       <c r="F49">
-        <v>72.284784222142434</v>
+        <f t="shared" si="1"/>
+        <v>74.207456484168802</v>
       </c>
       <c r="G49">
-        <v>157.25187068719009</v>
+        <f t="shared" si="1"/>
+        <v>72.871722267453762</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -2366,16 +2552,20 @@
         <v>338.06620240024495</v>
       </c>
       <c r="D50">
-        <v>535.87726253611811</v>
+        <f t="shared" si="1"/>
+        <v>331.98101075704056</v>
       </c>
       <c r="E50">
-        <v>553.09821275213574</v>
+        <f t="shared" si="1"/>
+        <v>326.00535256341385</v>
       </c>
       <c r="F50">
-        <v>822.24445948628875</v>
+        <f t="shared" si="1"/>
+        <v>320.13725621727241</v>
       </c>
       <c r="G50">
-        <v>737.79189383778339</v>
+        <f t="shared" si="1"/>
+        <v>314.37478560536152</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -2389,16 +2579,20 @@
         <v>1.3563910598362736</v>
       </c>
       <c r="D51">
-        <v>1.4120380324036617</v>
+        <f t="shared" si="1"/>
+        <v>1.3319760207592206</v>
       </c>
       <c r="E51">
-        <v>0.5641595423784963</v>
+        <f t="shared" si="1"/>
+        <v>1.3080004523855546</v>
       </c>
       <c r="F51">
-        <v>0.14120398749943253</v>
+        <f t="shared" si="1"/>
+        <v>1.2844564442426147</v>
       </c>
       <c r="G51">
-        <v>0.84658785934796232</v>
+        <f t="shared" si="1"/>
+        <v>1.2613362282462477</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
@@ -2412,16 +2606,20 @@
         <v>1.9592888814727019</v>
       </c>
       <c r="D52">
-        <v>0.25948732493887933</v>
+        <f t="shared" si="1"/>
+        <v>1.9240216816061932</v>
       </c>
       <c r="E52">
-        <v>0.51705526190348583</v>
+        <f t="shared" si="1"/>
+        <v>1.8893892913372818</v>
       </c>
       <c r="F52">
-        <v>0.31976765736717816</v>
+        <f t="shared" si="1"/>
+        <v>1.8553802840932108</v>
       </c>
       <c r="G52">
-        <v>1.87741722103527</v>
+        <f t="shared" si="1"/>
+        <v>1.8219834389795331</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -2435,16 +2633,20 @@
         <v>0.5124535291272726</v>
       </c>
       <c r="D53">
-        <v>0.45468386447849046</v>
+        <f t="shared" si="1"/>
+        <v>0.5032293656029817</v>
       </c>
       <c r="E53">
-        <v>9.1458143817691753E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.49417123702212806</v>
       </c>
       <c r="F53">
-        <v>9.1458102759268509E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.48527615475572977</v>
       </c>
       <c r="G53">
-        <v>9.1458341169663823E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.47654118397012663</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -2458,16 +2660,20 @@
         <v>73.685285923734369</v>
       </c>
       <c r="D54">
-        <v>218.03419930802124</v>
+        <f t="shared" si="1"/>
+        <v>72.358950777107154</v>
       </c>
       <c r="E54">
-        <v>313.02068461810501</v>
+        <f t="shared" si="1"/>
+        <v>71.056489663119223</v>
       </c>
       <c r="F54">
-        <v>251.80056536023</v>
+        <f t="shared" si="1"/>
+        <v>69.77747284918307</v>
       </c>
       <c r="G54">
-        <v>165.73500461617596</v>
+        <f t="shared" si="1"/>
+        <v>68.521478337897776</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -2481,16 +2687,20 @@
         <v>143.09129951451229</v>
       </c>
       <c r="D55">
-        <v>677.08244726208432</v>
+        <f t="shared" si="1"/>
+        <v>140.51565612325106</v>
       </c>
       <c r="E55">
-        <v>257.46789149689857</v>
+        <f t="shared" si="1"/>
+        <v>137.98637431303254</v>
       </c>
       <c r="F55">
-        <v>74.697079417193393</v>
+        <f t="shared" si="1"/>
+        <v>135.50261957539794</v>
       </c>
       <c r="G55">
-        <v>424.01064504305856</v>
+        <f t="shared" si="1"/>
+        <v>133.06357242304077</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -2504,16 +2714,20 @@
         <v>45.838378800204787</v>
       </c>
       <c r="D56">
-        <v>85.109993859810189</v>
+        <f t="shared" si="1"/>
+        <v>45.013287981801099</v>
       </c>
       <c r="E56">
-        <v>35.966493992791953</v>
+        <f t="shared" si="1"/>
+        <v>44.203048798128677</v>
       </c>
       <c r="F56">
-        <v>90.406154320865795</v>
+        <f t="shared" si="1"/>
+        <v>43.407393919762363</v>
       </c>
       <c r="G56">
-        <v>87.681953342732385</v>
+        <f t="shared" si="1"/>
+        <v>42.626060829206644</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
@@ -2527,16 +2741,20 @@
         <v>50.497863730996052</v>
       </c>
       <c r="D57">
-        <v>95.688479222512953</v>
+        <f t="shared" si="1"/>
+        <v>49.588902183838123</v>
       </c>
       <c r="E57">
-        <v>163.97425774034659</v>
+        <f t="shared" si="1"/>
+        <v>48.69630194452904</v>
       </c>
       <c r="F57">
-        <v>160.01339706739239</v>
+        <f t="shared" si="1"/>
+        <v>47.81976850952752</v>
       </c>
       <c r="G57">
-        <v>91.612831986982414</v>
+        <f t="shared" si="1"/>
+        <v>46.959012676356025</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -2550,16 +2768,20 @@
         <v>698.30980136284165</v>
       </c>
       <c r="D58">
-        <v>1723.304438825963</v>
+        <f t="shared" si="1"/>
+        <v>685.74022493831046</v>
       </c>
       <c r="E58">
-        <v>1964.853016459725</v>
+        <f t="shared" si="1"/>
+        <v>673.39690088942086</v>
       </c>
       <c r="F58">
-        <v>1750.1576412802478</v>
+        <f t="shared" si="1"/>
+        <v>661.27575667341125</v>
       </c>
       <c r="G58">
-        <v>1832.4570992008501</v>
+        <f t="shared" si="1"/>
+        <v>649.3727930532898</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
@@ -2573,16 +2795,20 @@
         <v>7.5102662235912403</v>
       </c>
       <c r="D59">
-        <v>30.164213936192208</v>
+        <f t="shared" si="1"/>
+        <v>7.3750814315665982</v>
       </c>
       <c r="E59">
-        <v>86.49140044371444</v>
+        <f t="shared" si="1"/>
+        <v>7.2423299657983993</v>
       </c>
       <c r="F59">
-        <v>24.315724574169664</v>
+        <f t="shared" si="1"/>
+        <v>7.1119680264140284</v>
       </c>
       <c r="G59">
-        <v>41.32174002357258</v>
+        <f t="shared" si="1"/>
+        <v>6.9839526019385758</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
@@ -2596,16 +2822,20 @@
         <v>3416740.3339356659</v>
       </c>
       <c r="D60">
-        <v>8713807.8614933509</v>
+        <f t="shared" si="1"/>
+        <v>3355239.007924824</v>
       </c>
       <c r="E60">
-        <v>10067534.215854222</v>
+        <f t="shared" si="1"/>
+        <v>3294844.7057821774</v>
       </c>
       <c r="F60">
-        <v>16650982.184909869</v>
+        <f t="shared" si="1"/>
+        <v>3235537.5010780981</v>
       </c>
       <c r="G60">
-        <v>9625215.4899068587</v>
+        <f t="shared" si="1"/>
+        <v>3177297.8260586923</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
@@ -2619,16 +2849,20 @@
         <v>4.5786470660854643</v>
       </c>
       <c r="D61">
-        <v>3.7012413585864006</v>
+        <f t="shared" si="1"/>
+        <v>4.4962314188959258</v>
       </c>
       <c r="E61">
-        <v>3.9231942412830296</v>
+        <f t="shared" si="1"/>
+        <v>4.4152992533557995</v>
       </c>
       <c r="F61">
-        <v>3.6541175118439972</v>
+        <f t="shared" si="1"/>
+        <v>4.335823866795395</v>
       </c>
       <c r="G61">
-        <v>8.6064506744044866</v>
+        <f t="shared" si="1"/>
+        <v>4.2577790371930782</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
@@ -2642,16 +2876,20 @@
         <v>85.356609451990323</v>
       </c>
       <c r="D62">
-        <v>245.26460653633279</v>
+        <f t="shared" si="1"/>
+        <v>83.820190481854496</v>
       </c>
       <c r="E62">
-        <v>512.43601937704318</v>
+        <f t="shared" si="1"/>
+        <v>82.31142705318112</v>
       </c>
       <c r="F62">
-        <v>101.0120496132279</v>
+        <f t="shared" si="1"/>
+        <v>80.829821366223854</v>
       </c>
       <c r="G62">
-        <v>377.60495465924731</v>
+        <f t="shared" si="1"/>
+        <v>79.374884581631818</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
@@ -2665,16 +2903,20 @@
         <v>3.0388977289855634</v>
       </c>
       <c r="D63">
-        <v>4.1986682713746433</v>
+        <f t="shared" si="1"/>
+        <v>2.9841975698638232</v>
       </c>
       <c r="E63">
-        <v>13.152314724173703</v>
+        <f t="shared" si="1"/>
+        <v>2.9304820136062744</v>
       </c>
       <c r="F63">
-        <v>1.8593414459072644</v>
+        <f t="shared" si="1"/>
+        <v>2.8777333373613616</v>
       </c>
       <c r="G63">
-        <v>5.2669699298529329</v>
+        <f t="shared" si="1"/>
+        <v>2.8259341372888569</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
@@ -2688,16 +2930,20 @@
         <v>3.5563547365590442</v>
       </c>
       <c r="D64">
-        <v>11.243549195542125</v>
+        <f t="shared" si="1"/>
+        <v>3.4923403513009816</v>
       </c>
       <c r="E64">
-        <v>3.6015815774589108</v>
+        <f t="shared" si="1"/>
+        <v>3.4294782249775642</v>
       </c>
       <c r="F64">
-        <v>2.634139536958493</v>
+        <f t="shared" si="1"/>
+        <v>3.3677476169279679</v>
       </c>
       <c r="G64">
-        <v>5.7161401931114169</v>
+        <f t="shared" si="1"/>
+        <v>3.3071281598232645</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
@@ -2711,16 +2957,20 @@
         <v>22.347617151669073</v>
       </c>
       <c r="D65">
-        <v>49.449889321057938</v>
+        <f t="shared" si="1"/>
+        <v>21.945360042939029</v>
       </c>
       <c r="E65">
-        <v>49.869039664529829</v>
+        <f t="shared" si="1"/>
+        <v>21.550343562166127</v>
       </c>
       <c r="F65">
-        <v>38.66764166428456</v>
+        <f t="shared" si="1"/>
+        <v>21.162437378047137</v>
       </c>
       <c r="G65">
-        <v>80.153218513550044</v>
+        <f t="shared" si="1"/>
+        <v>20.781513505242287</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
@@ -2734,16 +2984,20 @@
         <v>59.140329737077373</v>
       </c>
       <c r="D66">
-        <v>52.348279298074658</v>
+        <f t="shared" si="1"/>
+        <v>58.075803801809982</v>
       </c>
       <c r="E66">
-        <v>39.283719351623482</v>
+        <f t="shared" si="1"/>
+        <v>57.030439333377402</v>
       </c>
       <c r="F66">
-        <v>69.91742556690086</v>
+        <f t="shared" si="1"/>
+        <v>56.003891425376608</v>
       </c>
       <c r="G66">
-        <v>53.931269891900882</v>
+        <f t="shared" si="1"/>
+        <v>54.995821379719828</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
@@ -2757,16 +3011,20 @@
         <v>31.943716401997079</v>
       </c>
       <c r="D67">
-        <v>42.935449637044627</v>
+        <f t="shared" ref="D67:G104" si="2">C67-(C67*0.018)</f>
+        <v>31.368729506761131</v>
       </c>
       <c r="E67">
-        <v>20.923372709476794</v>
+        <f t="shared" si="2"/>
+        <v>30.804092375639431</v>
       </c>
       <c r="F67">
-        <v>26.202488868520192</v>
+        <f t="shared" si="2"/>
+        <v>30.249618712877922</v>
       </c>
       <c r="G67">
-        <v>50.052649211464399</v>
+        <f t="shared" si="2"/>
+        <v>29.705125576046118</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
@@ -2780,16 +3038,20 @@
         <v>5798.640551464584</v>
       </c>
       <c r="D68">
-        <v>25543.754500458697</v>
+        <f t="shared" si="2"/>
+        <v>5694.2650215382218</v>
       </c>
       <c r="E68">
-        <v>43924.060370103318</v>
+        <f t="shared" si="2"/>
+        <v>5591.7682511505336</v>
       </c>
       <c r="F68">
-        <v>33198.993095834499</v>
+        <f t="shared" si="2"/>
+        <v>5491.1164226298242</v>
       </c>
       <c r="G68">
-        <v>22556.799343137332</v>
+        <f t="shared" si="2"/>
+        <v>5392.2763270224877</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
@@ -2803,16 +3065,20 @@
         <v>2911.0440888046301</v>
       </c>
       <c r="D69">
-        <v>11936.329256683875</v>
+        <f t="shared" si="2"/>
+        <v>2858.6452952061468</v>
       </c>
       <c r="E69">
-        <v>11610.90169179013</v>
+        <f t="shared" si="2"/>
+        <v>2807.1896798924363</v>
       </c>
       <c r="F69">
-        <v>14501.220890606988</v>
+        <f t="shared" si="2"/>
+        <v>2756.6602656543723</v>
       </c>
       <c r="G69">
-        <v>10782.59826909101</v>
+        <f t="shared" si="2"/>
+        <v>2707.0403808725937</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
@@ -2826,16 +3092,20 @@
         <v>12.319093941041217</v>
       </c>
       <c r="D70">
-        <v>13.494875541610593</v>
+        <f t="shared" si="2"/>
+        <v>12.097350250102474</v>
       </c>
       <c r="E70">
-        <v>28.726650675187731</v>
+        <f t="shared" si="2"/>
+        <v>11.879597945600629</v>
       </c>
       <c r="F70">
-        <v>1.2935386622812197</v>
+        <f t="shared" si="2"/>
+        <v>11.665765182579818</v>
       </c>
       <c r="G70">
-        <v>7.9647298750577313</v>
+        <f t="shared" si="2"/>
+        <v>11.455781409293381</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
@@ -2849,16 +3119,20 @@
         <v>147.10640419391731</v>
       </c>
       <c r="D71">
-        <v>766.35060995696665</v>
+        <f t="shared" si="2"/>
+        <v>144.45848891842681</v>
       </c>
       <c r="E71">
-        <v>469.38677613786302</v>
+        <f t="shared" si="2"/>
+        <v>141.85823611789513</v>
       </c>
       <c r="F71">
-        <v>533.51644672987061</v>
+        <f t="shared" si="2"/>
+        <v>139.30478786777303</v>
       </c>
       <c r="G71">
-        <v>429.92462947980408</v>
+        <f t="shared" si="2"/>
+        <v>136.79730168615311</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
@@ -2868,21 +3142,6 @@
       <c r="B72" t="s">
         <v>70</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>1.0262832096257049E-2</v>
-      </c>
-      <c r="E72">
-        <v>5.5761156505801648E-3</v>
-      </c>
-      <c r="F72">
-        <v>2.7829232730838531E-2</v>
-      </c>
-      <c r="G72">
-        <v>9.6535575557757117E-2</v>
-      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
@@ -2895,16 +3154,20 @@
         <v>2890522.5992826116</v>
       </c>
       <c r="D73">
-        <v>4672820.4361518519</v>
+        <f t="shared" si="2"/>
+        <v>2838493.1924955244</v>
       </c>
       <c r="E73">
-        <v>5466956.9317633901</v>
+        <f t="shared" si="2"/>
+        <v>2787400.3150306051</v>
       </c>
       <c r="F73">
-        <v>6564887.2781695565</v>
+        <f t="shared" si="2"/>
+        <v>2737227.1093600541</v>
       </c>
       <c r="G73">
-        <v>4846930.7809472606</v>
+        <f t="shared" si="2"/>
+        <v>2687957.0213915734</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
@@ -2918,16 +3181,20 @@
         <v>85.575752678897459</v>
       </c>
       <c r="D74">
-        <v>59.477023267325499</v>
+        <f t="shared" si="2"/>
+        <v>84.035389130677302</v>
       </c>
       <c r="E74">
-        <v>156.03586883361601</v>
+        <f t="shared" si="2"/>
+        <v>82.522752126325116</v>
       </c>
       <c r="F74">
-        <v>26.426106238528345</v>
+        <f t="shared" si="2"/>
+        <v>81.03734258805126</v>
       </c>
       <c r="G74">
-        <v>73.580674526577212</v>
+        <f t="shared" si="2"/>
+        <v>79.578670421466342</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
@@ -2941,16 +3208,20 @@
         <v>112.87355121166372</v>
       </c>
       <c r="D75">
-        <v>185.54129633397048</v>
+        <f t="shared" si="2"/>
+        <v>110.84182728985378</v>
       </c>
       <c r="E75">
-        <v>368.31816696502887</v>
+        <f t="shared" si="2"/>
+        <v>108.84667439863641</v>
       </c>
       <c r="F75">
-        <v>177.13329920424138</v>
+        <f t="shared" si="2"/>
+        <v>106.88743425946096</v>
       </c>
       <c r="G75">
-        <v>143.66334754660704</v>
+        <f t="shared" si="2"/>
+        <v>104.96346044279066</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
@@ -2964,16 +3235,20 @@
         <v>5536.9900840298678</v>
       </c>
       <c r="D76">
-        <v>8451.7148808926395</v>
+        <f t="shared" si="2"/>
+        <v>5437.3242625173298</v>
       </c>
       <c r="E76">
-        <v>6416.7543877148801</v>
+        <f t="shared" si="2"/>
+        <v>5339.4524257920175</v>
       </c>
       <c r="F76">
-        <v>5889.2380304971002</v>
+        <f t="shared" si="2"/>
+        <v>5243.3422821277609</v>
       </c>
       <c r="G76">
-        <v>10318.088421524752</v>
+        <f t="shared" si="2"/>
+        <v>5148.9621210494615</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
@@ -2987,16 +3262,20 @@
         <v>42310.489570933496</v>
       </c>
       <c r="D77">
-        <v>64068.777096999576</v>
+        <f t="shared" si="2"/>
+        <v>41548.900758656695</v>
       </c>
       <c r="E77">
-        <v>85448.172962878234</v>
+        <f t="shared" si="2"/>
+        <v>40801.020545000873</v>
       </c>
       <c r="F77">
-        <v>58924.908198484503</v>
+        <f t="shared" si="2"/>
+        <v>40066.602175190856</v>
       </c>
       <c r="G77">
-        <v>102607.70023477527</v>
+        <f t="shared" si="2"/>
+        <v>39345.403336037423</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
@@ -3010,16 +3289,20 @@
         <v>1350.0872504571796</v>
       </c>
       <c r="D78">
-        <v>1702.0867141212452</v>
+        <f t="shared" si="2"/>
+        <v>1325.7856799489505</v>
       </c>
       <c r="E78">
-        <v>883.36486959746321</v>
+        <f t="shared" si="2"/>
+        <v>1301.9215377098694</v>
       </c>
       <c r="F78">
-        <v>1594.6225803428042</v>
+        <f t="shared" si="2"/>
+        <v>1278.4869500310917</v>
       </c>
       <c r="G78">
-        <v>1651.7247021644291</v>
+        <f t="shared" si="2"/>
+        <v>1255.4741849305321</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
@@ -3033,16 +3316,20 @@
         <v>1623.3823571239802</v>
       </c>
       <c r="D79">
-        <v>1810.7193722316133</v>
+        <f t="shared" si="2"/>
+        <v>1594.1614746957487</v>
       </c>
       <c r="E79">
-        <v>2277.2609722699417</v>
+        <f t="shared" si="2"/>
+        <v>1565.4665681512251</v>
       </c>
       <c r="F79">
-        <v>1246.6361678063636</v>
+        <f t="shared" si="2"/>
+        <v>1537.2881699245031</v>
       </c>
       <c r="G79">
-        <v>2870.962144688935</v>
+        <f t="shared" si="2"/>
+        <v>1509.6169828658622</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
@@ -3056,16 +3343,20 @@
         <v>1.4455642128464057</v>
       </c>
       <c r="D80">
-        <v>1.279845252851489</v>
+        <f t="shared" si="2"/>
+        <v>1.4195440570151703</v>
       </c>
       <c r="E80">
-        <v>19.455050051721116</v>
+        <f t="shared" si="2"/>
+        <v>1.3939922639888973</v>
       </c>
       <c r="F80">
-        <v>1.7917863031726435</v>
+        <f t="shared" si="2"/>
+        <v>1.3689004032370971</v>
       </c>
       <c r="G80">
-        <v>2.0323456651292484</v>
+        <f t="shared" si="2"/>
+        <v>1.3442601959788294</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
@@ -3079,16 +3370,20 @@
         <v>21.44429892026761</v>
       </c>
       <c r="D81">
-        <v>42.372601050574261</v>
+        <f t="shared" si="2"/>
+        <v>21.058301539702793</v>
       </c>
       <c r="E81">
-        <v>67.240081713829454</v>
+        <f t="shared" si="2"/>
+        <v>20.679252111988141</v>
       </c>
       <c r="F81">
-        <v>56.5792607343706</v>
+        <f t="shared" si="2"/>
+        <v>20.307025573972354</v>
       </c>
       <c r="G81">
-        <v>46.822895133209087</v>
+        <f t="shared" si="2"/>
+        <v>19.941499113640852</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
@@ -3102,16 +3397,20 @@
         <v>86323.511503803107</v>
       </c>
       <c r="D82">
-        <v>133302.46725156816</v>
+        <f t="shared" si="2"/>
+        <v>84769.688296734646</v>
       </c>
       <c r="E82">
-        <v>109084.65641424168</v>
+        <f t="shared" si="2"/>
+        <v>83243.833907393418</v>
       </c>
       <c r="F82">
-        <v>230726.25384746649</v>
+        <f t="shared" si="2"/>
+        <v>81745.444897060341</v>
       </c>
       <c r="G82">
-        <v>70771.473872471965</v>
+        <f t="shared" si="2"/>
+        <v>80274.026888913257</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
@@ -3125,16 +3424,20 @@
         <v>10.126679407068327</v>
       </c>
       <c r="D83">
-        <v>1.9836629587423873</v>
+        <f t="shared" si="2"/>
+        <v>9.9443991777410972</v>
       </c>
       <c r="E83">
-        <v>4.6285459132035012</v>
+        <f t="shared" si="2"/>
+        <v>9.7653999925417576</v>
       </c>
       <c r="F83">
-        <v>2.9736056411981986</v>
+        <f t="shared" si="2"/>
+        <v>9.5896227926760051</v>
       </c>
       <c r="G83">
-        <v>2.9754946937951834</v>
+        <f t="shared" si="2"/>
+        <v>9.4170095824078377</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
@@ -3148,16 +3451,20 @@
         <v>0.14823360087225804</v>
       </c>
       <c r="D84">
-        <v>0.21377271423114569</v>
+        <f t="shared" si="2"/>
+        <v>0.14556539605655738</v>
       </c>
       <c r="E84">
-        <v>0.10688610656102127</v>
+        <f t="shared" si="2"/>
+        <v>0.14294521892753936</v>
       </c>
       <c r="F84">
-        <v>0.10688649661679951</v>
+        <f t="shared" si="2"/>
+        <v>0.14037220498684366</v>
       </c>
       <c r="G84">
-        <v>0.21377292119446006</v>
+        <f t="shared" si="2"/>
+        <v>0.13784550529708048</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
@@ -3171,16 +3478,20 @@
         <v>1034.2796021682493</v>
       </c>
       <c r="D85">
-        <v>8464.1135770174824</v>
+        <f t="shared" si="2"/>
+        <v>1015.6625693292208</v>
       </c>
       <c r="E85">
-        <v>8183.7854103709415</v>
+        <f t="shared" si="2"/>
+        <v>997.38064308129481</v>
       </c>
       <c r="F85">
-        <v>17165.159065246407</v>
+        <f t="shared" si="2"/>
+        <v>979.42779150583146</v>
       </c>
       <c r="G85">
-        <v>9098.3984541738755</v>
+        <f t="shared" si="2"/>
+        <v>961.79809125872646</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
@@ -3194,16 +3505,20 @@
         <v>244.57780379017339</v>
       </c>
       <c r="D86">
-        <v>315.91743531968763</v>
+        <f t="shared" si="2"/>
+        <v>240.17540332195028</v>
       </c>
       <c r="E86">
-        <v>678.43513930128654</v>
+        <f t="shared" si="2"/>
+        <v>235.85224606215519</v>
       </c>
       <c r="F86">
-        <v>454.38673666714396</v>
+        <f t="shared" si="2"/>
+        <v>231.6069056330364</v>
       </c>
       <c r="G86">
-        <v>347.35209913347791</v>
+        <f t="shared" si="2"/>
+        <v>227.43798133164174</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
@@ -3217,16 +3532,20 @@
         <v>2.2556510085217694</v>
       </c>
       <c r="D87">
-        <v>0.35258208882192615</v>
+        <f t="shared" si="2"/>
+        <v>2.2150492903683774</v>
       </c>
       <c r="E87">
-        <v>0.35258183889343092</v>
+        <f t="shared" si="2"/>
+        <v>2.1751784031417465</v>
       </c>
       <c r="F87">
-        <v>1.7629131410821026</v>
+        <f t="shared" si="2"/>
+        <v>2.1360251918851949</v>
       </c>
       <c r="G87">
-        <v>0.3525829416991314</v>
+        <f t="shared" si="2"/>
+        <v>2.0975767384312616</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
@@ -3240,16 +3559,20 @@
         <v>4.3629690431047612</v>
       </c>
       <c r="D88">
-        <v>6.7067930152740223</v>
+        <f t="shared" si="2"/>
+        <v>4.2844356003288757</v>
       </c>
       <c r="E88">
-        <v>6.5750564951093686</v>
+        <f t="shared" si="2"/>
+        <v>4.207315759522956</v>
       </c>
       <c r="F88">
-        <v>5.1411298472355558</v>
+        <f t="shared" si="2"/>
+        <v>4.131584075851543</v>
       </c>
       <c r="G88">
-        <v>1.2577474785146612</v>
+        <f t="shared" si="2"/>
+        <v>4.0572155624862152</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
@@ -3263,16 +3586,20 @@
         <v>11.462036594419667</v>
       </c>
       <c r="D89">
-        <v>24.58504400098899</v>
+        <f t="shared" si="2"/>
+        <v>11.255719935720112</v>
       </c>
       <c r="E89">
-        <v>38.014077986796259</v>
+        <f t="shared" si="2"/>
+        <v>11.053116976877151</v>
       </c>
       <c r="F89">
-        <v>31.796674835252656</v>
+        <f t="shared" si="2"/>
+        <v>10.854160871293363</v>
       </c>
       <c r="G89">
-        <v>31.015336193137543</v>
+        <f t="shared" si="2"/>
+        <v>10.658785975610083</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
@@ -3286,16 +3613,20 @@
         <v>2028.0034145795682</v>
       </c>
       <c r="D90">
-        <v>346.09533297400321</v>
+        <f t="shared" si="2"/>
+        <v>1991.499353117136</v>
       </c>
       <c r="E90">
-        <v>774.65355534717435</v>
+        <f t="shared" si="2"/>
+        <v>1955.6523647610277</v>
       </c>
       <c r="F90">
-        <v>246.24962513452067</v>
+        <f t="shared" si="2"/>
+        <v>1920.4506221953293</v>
       </c>
       <c r="G90">
-        <v>391.53335132061238</v>
+        <f t="shared" si="2"/>
+        <v>1885.8825109958134</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
@@ -3309,16 +3640,20 @@
         <v>22.581250272627226</v>
       </c>
       <c r="D91">
-        <v>3.6287599796634242</v>
+        <f t="shared" si="2"/>
+        <v>22.174787767719938</v>
       </c>
       <c r="E91">
-        <v>9.9764966548583907</v>
+        <f t="shared" si="2"/>
+        <v>21.775641587900978</v>
       </c>
       <c r="F91">
-        <v>12.158988416685075</v>
+        <f t="shared" si="2"/>
+        <v>21.383680039318762</v>
       </c>
       <c r="G91">
-        <v>3.1751637010773228</v>
+        <f t="shared" si="2"/>
+        <v>20.998773798611023</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
@@ -3332,16 +3667,20 @@
         <v>25136.629193579622</v>
       </c>
       <c r="D92">
-        <v>47061.513012510935</v>
+        <f t="shared" si="2"/>
+        <v>24684.169868095189</v>
       </c>
       <c r="E92">
-        <v>53556.100063467828</v>
+        <f t="shared" si="2"/>
+        <v>24239.854810469475</v>
       </c>
       <c r="F92">
-        <v>75817.350324114115</v>
+        <f t="shared" si="2"/>
+        <v>23803.537423881025</v>
       </c>
       <c r="G92">
-        <v>79070.779803767611</v>
+        <f t="shared" si="2"/>
+        <v>23375.073750251166</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
@@ -3355,16 +3694,20 @@
         <v>679.75873645715558</v>
       </c>
       <c r="D93">
-        <v>908.63888028869985</v>
+        <f t="shared" si="2"/>
+        <v>667.52307920092676</v>
       </c>
       <c r="E93">
-        <v>464.91943330954302</v>
+        <f t="shared" si="2"/>
+        <v>655.50766377531011</v>
       </c>
       <c r="F93">
-        <v>1618.117124802812</v>
+        <f t="shared" si="2"/>
+        <v>643.70852582735449</v>
       </c>
       <c r="G93">
-        <v>551.14569731445181</v>
+        <f t="shared" si="2"/>
+        <v>632.12177236246214</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.4">
@@ -3378,16 +3721,20 @@
         <v>157.81404059590287</v>
       </c>
       <c r="D94">
-        <v>207.34227307966231</v>
+        <f t="shared" si="2"/>
+        <v>154.97338786517662</v>
       </c>
       <c r="E94">
-        <v>471.0517901982526</v>
+        <f t="shared" si="2"/>
+        <v>152.18386688360343</v>
       </c>
       <c r="F94">
-        <v>310.46094706631976</v>
+        <f t="shared" si="2"/>
+        <v>149.44455727969856</v>
       </c>
       <c r="G94">
-        <v>1239.2228907422948</v>
+        <f t="shared" si="2"/>
+        <v>146.75455524866399</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.4">
@@ -3401,16 +3748,20 @@
         <v>6.9558487879508686</v>
       </c>
       <c r="D95">
-        <v>10.433614537863194</v>
+        <f t="shared" si="2"/>
+        <v>6.8306435097677527</v>
       </c>
       <c r="E95">
-        <v>15.970383251123986</v>
+        <f t="shared" si="2"/>
+        <v>6.7076919265919335</v>
       </c>
       <c r="F95">
-        <v>18.753290071375069</v>
+        <f t="shared" si="2"/>
+        <v>6.5869534719132785</v>
       </c>
       <c r="G95">
-        <v>8.2227542609940034</v>
+        <f t="shared" si="2"/>
+        <v>6.4683883094188399</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.4">
@@ -3424,16 +3775,20 @@
         <v>106.4446940059179</v>
       </c>
       <c r="D96">
-        <v>107.3259241733777</v>
+        <f t="shared" si="2"/>
+        <v>104.52868951381137</v>
       </c>
       <c r="E96">
-        <v>78.595336693719204</v>
+        <f t="shared" si="2"/>
+        <v>102.64717310256276</v>
       </c>
       <c r="F96">
-        <v>59.245502201146877</v>
+        <f t="shared" si="2"/>
+        <v>100.79952398671664</v>
       </c>
       <c r="G96">
-        <v>100.65923199315445</v>
+        <f t="shared" si="2"/>
+        <v>98.98513255495574</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.4">
@@ -3447,16 +3802,20 @@
         <v>26.974974492218372</v>
       </c>
       <c r="D97">
-        <v>125.43725923728636</v>
+        <f t="shared" si="2"/>
+        <v>26.489424951358441</v>
       </c>
       <c r="E97">
-        <v>27.063280297614188</v>
+        <f t="shared" si="2"/>
+        <v>26.012615302233989</v>
       </c>
       <c r="F97">
-        <v>80.573549884219361</v>
+        <f t="shared" si="2"/>
+        <v>25.544388226793778</v>
       </c>
       <c r="G97">
-        <v>29.839550751687788</v>
+        <f t="shared" si="2"/>
+        <v>25.084589238711491</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.4">
@@ -3470,16 +3829,20 @@
         <v>249581.49850038221</v>
       </c>
       <c r="D98">
-        <v>596650.0691757435</v>
+        <f t="shared" si="2"/>
+        <v>245089.03152737534</v>
       </c>
       <c r="E98">
-        <v>424739.61194027413</v>
+        <f t="shared" si="2"/>
+        <v>240677.42895988259</v>
       </c>
       <c r="F98">
-        <v>764424.08143818891</v>
+        <f t="shared" si="2"/>
+        <v>236345.23523860471</v>
       </c>
       <c r="G98">
-        <v>449295.15166612994</v>
+        <f t="shared" si="2"/>
+        <v>232091.02100430982</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
@@ -3493,16 +3856,20 @@
         <v>0.13493053102826863</v>
       </c>
       <c r="D99">
-        <v>5.2128971390288645E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.1325017814697598</v>
       </c>
       <c r="E99">
-        <v>0.26064546780564535</v>
+        <f t="shared" si="2"/>
+        <v>0.13011674940330412</v>
       </c>
       <c r="F99">
-        <v>0.312774377502964</v>
+        <f t="shared" si="2"/>
+        <v>0.12777464791404464</v>
       </c>
       <c r="G99">
-        <v>0.15638723335507979</v>
+        <f t="shared" si="2"/>
+        <v>0.12547470425159182</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.4">
@@ -3516,16 +3883,20 @@
         <v>130.20567814169809</v>
       </c>
       <c r="D100">
-        <v>189.67365942970861</v>
+        <f t="shared" si="2"/>
+        <v>127.86197593514753</v>
       </c>
       <c r="E100">
-        <v>287.86598404736333</v>
+        <f t="shared" si="2"/>
+        <v>125.56046036831488</v>
       </c>
       <c r="F100">
-        <v>275.87319435186828</v>
+        <f t="shared" si="2"/>
+        <v>123.30037208168521</v>
       </c>
       <c r="G100">
-        <v>147.162060908981</v>
+        <f t="shared" si="2"/>
+        <v>121.08096538421488</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
@@ -3539,16 +3910,20 @@
         <v>0.82868856237547994</v>
       </c>
       <c r="D101">
-        <v>2.5950204096869851</v>
+        <f t="shared" si="2"/>
+        <v>0.81377216825272125</v>
       </c>
       <c r="E101">
-        <v>1.6536990192195438</v>
+        <f t="shared" si="2"/>
+        <v>0.79912426922417223</v>
       </c>
       <c r="F101">
-        <v>0.47318379009763833</v>
+        <f t="shared" si="2"/>
+        <v>0.78474003237813716</v>
       </c>
       <c r="G101">
-        <v>3.3112316853403323</v>
+        <f t="shared" si="2"/>
+        <v>0.7706147117953307</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.4">
@@ -3562,16 +3937,20 @@
         <v>13.917147047177268</v>
       </c>
       <c r="D102">
-        <v>30.224295156258361</v>
+        <f t="shared" si="2"/>
+        <v>13.666638400328077</v>
       </c>
       <c r="E102">
-        <v>10.17868759298295</v>
+        <f t="shared" si="2"/>
+        <v>13.420638909122172</v>
       </c>
       <c r="F102">
-        <v>15.691952855921805</v>
+        <f t="shared" si="2"/>
+        <v>13.179067408757973</v>
       </c>
       <c r="G102">
-        <v>26.07203972594764</v>
+        <f t="shared" si="2"/>
+        <v>12.94184419540033</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.4">
@@ -3585,16 +3964,20 @@
         <v>1.6313278781697618</v>
       </c>
       <c r="D103">
-        <v>2.3906784394193834</v>
+        <f t="shared" si="2"/>
+        <v>1.601963976362706</v>
       </c>
       <c r="E103">
-        <v>4.3338462004457936</v>
+        <f t="shared" si="2"/>
+        <v>1.5731286247881773</v>
       </c>
       <c r="F103">
-        <v>1.3327868954677879</v>
+        <f t="shared" si="2"/>
+        <v>1.5448123095419901</v>
       </c>
       <c r="G103">
-        <v>2.5455191089357787</v>
+        <f t="shared" si="2"/>
+        <v>1.5170056879702343</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.4">
@@ -3608,16 +3991,20 @@
         <v>1.842878632120152</v>
       </c>
       <c r="D104">
-        <v>2.5145354652236849</v>
+        <f t="shared" si="2"/>
+        <v>1.8097068167419892</v>
       </c>
       <c r="E104">
-        <v>28.833371409872434</v>
+        <f t="shared" si="2"/>
+        <v>1.7771320940406334</v>
       </c>
       <c r="F104">
-        <v>1.730428366964571</v>
+        <f t="shared" si="2"/>
+        <v>1.745143716347902</v>
       </c>
       <c r="G104">
-        <v>3.0282510646238898</v>
+        <f t="shared" si="2"/>
+        <v>1.7137311294536397</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +5331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
